--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788757</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788757</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112421881.200802</v>
+        <v>45618449.1103349</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9338.421293524036</v>
+        <v>1026808.13681365</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17951.56146954599</v>
+        <v>1939856.49105478</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26564.70164556793</v>
+        <v>2852904.845295913</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35509.09778844409</v>
+        <v>3779001.810446135</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44387.92302222933</v>
+        <v>4692050.164687268</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53266.74825601458</v>
+        <v>5605098.518928398</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62145.57348979982</v>
+        <v>6518146.873169526</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71024.39872358505</v>
+        <v>7431195.227410654</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79903.22395737031</v>
+        <v>8344243.581651782</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88782.04919115554</v>
+        <v>9257291.935892908</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97660.87442494078</v>
+        <v>10170340.29013404</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106233.2982985446</v>
+        <v>11070340.03346609</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114871.2930812392</v>
+        <v>11983388.38770723</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123509.2878639339</v>
+        <v>12896436.74194837</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132147.2826466286</v>
+        <v>13809485.0961895</v>
       </c>
     </row>
   </sheetData>
